--- a/storage/app/iprs/2/iprs.xlsx
+++ b/storage/app/iprs/2/iprs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1339200-EAA0-4C21-8000-2081788F56F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21B2D8-1C20-4BE6-8723-4C4202F395F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -311,11 +311,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,6 +371,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,13 +596,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -582,7 +610,7 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -655,8 +683,26 @@
       <c r="X1" s="1">
         <v>34</v>
       </c>
+      <c r="Y1" s="12">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="12">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="12">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -725,8 +771,26 @@
       <c r="X2" s="6">
         <v>0</v>
       </c>
+      <c r="Y2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -795,8 +859,26 @@
       <c r="X3" s="6">
         <v>0</v>
       </c>
+      <c r="Y3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -865,8 +947,26 @@
       <c r="X4" s="6">
         <v>0</v>
       </c>
+      <c r="Y4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -935,8 +1035,26 @@
       <c r="X5" s="6">
         <v>0</v>
       </c>
+      <c r="Y5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1005,8 +1123,26 @@
       <c r="X6" s="6">
         <v>0</v>
       </c>
+      <c r="Y6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1211,26 @@
       <c r="X7" s="3">
         <v>8.5</v>
       </c>
+      <c r="Y7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1145,8 +1299,26 @@
       <c r="X8" s="6">
         <v>0</v>
       </c>
+      <c r="Y8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1215,8 +1387,26 @@
       <c r="X9" s="6">
         <v>0</v>
       </c>
+      <c r="Y9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1285,8 +1475,26 @@
       <c r="X10" s="6">
         <v>0</v>
       </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1355,8 +1563,26 @@
       <c r="X11" s="6">
         <v>0</v>
       </c>
+      <c r="Y11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1425,8 +1651,26 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
+      <c r="Y12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1495,8 +1739,26 @@
       <c r="X13" s="6">
         <v>0</v>
       </c>
+      <c r="Y13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1565,8 +1827,26 @@
       <c r="X14" s="6">
         <v>0</v>
       </c>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
@@ -1635,8 +1915,26 @@
       <c r="X15" s="6">
         <v>0</v>
       </c>
+      <c r="Y15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -1705,8 +2003,26 @@
       <c r="X16" s="6">
         <v>0</v>
       </c>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1775,8 +2091,26 @@
       <c r="X17" s="6">
         <v>0</v>
       </c>
+      <c r="Y17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1845,8 +2179,26 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
+      <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="19" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1915,8 +2267,26 @@
       <c r="X19" s="3">
         <v>0</v>
       </c>
+      <c r="Y19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1985,8 +2355,26 @@
       <c r="X20" s="6">
         <v>0</v>
       </c>
+      <c r="Y20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="21" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -2055,8 +2443,26 @@
       <c r="X21" s="6">
         <v>0</v>
       </c>
+      <c r="Y21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
@@ -2125,8 +2531,26 @@
       <c r="X22" s="6">
         <v>0</v>
       </c>
+      <c r="Y22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
@@ -2195,8 +2619,26 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
+      <c r="Y23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -2265,8 +2707,26 @@
       <c r="X24" s="6">
         <v>0</v>
       </c>
+      <c r="Y24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="25" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -2335,8 +2795,26 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
+      <c r="Y25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -2405,8 +2883,26 @@
       <c r="X26" s="7">
         <v>0</v>
       </c>
+      <c r="Y26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="27" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
@@ -2475,8 +2971,26 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
+      <c r="Y27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="28" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -2545,8 +3059,26 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
+      <c r="Y28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="29" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -2615,8 +3147,26 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
+      <c r="Y29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="30" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -2685,8 +3235,26 @@
       <c r="X30" s="6">
         <v>0</v>
       </c>
+      <c r="Y30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="31" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -2755,8 +3323,26 @@
       <c r="X31" s="6">
         <v>0</v>
       </c>
+      <c r="Y31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -2823,8 +3409,26 @@
       <c r="X32" s="6">
         <v>0</v>
       </c>
+      <c r="Y32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="33" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3497,26 @@
       <c r="X33" s="6">
         <v>0</v>
       </c>
+      <c r="Y33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="34" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
@@ -2963,8 +3585,26 @@
       <c r="X34" s="6">
         <v>0</v>
       </c>
+      <c r="Y34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="35" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
@@ -3033,8 +3673,26 @@
       <c r="X35" s="6">
         <v>0</v>
       </c>
+      <c r="Y35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="36" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="8" t="s">
         <v>35</v>
       </c>
@@ -3103,8 +3761,26 @@
       <c r="X36" s="6">
         <v>0</v>
       </c>
+      <c r="Y36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="37" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="8" t="s">
         <v>36</v>
       </c>
@@ -3173,8 +3849,26 @@
       <c r="X37" s="6">
         <v>0</v>
       </c>
+      <c r="Y37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="38" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A38" s="8" t="s">
         <v>37</v>
       </c>
@@ -3243,8 +3937,26 @@
       <c r="X38" s="6">
         <v>0</v>
       </c>
+      <c r="Y38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="39" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A39" s="8" t="s">
         <v>38</v>
       </c>
@@ -3313,8 +4025,26 @@
       <c r="X39" s="6">
         <v>0</v>
       </c>
+      <c r="Y39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="40" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +4113,26 @@
       <c r="X40" s="6">
         <v>0</v>
       </c>
+      <c r="Y40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="41" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
@@ -3453,8 +4201,26 @@
       <c r="X41" s="6">
         <v>0</v>
       </c>
+      <c r="Y41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="42" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
@@ -3523,8 +4289,26 @@
       <c r="X42" s="6">
         <v>0</v>
       </c>
+      <c r="Y42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:24" ht="15" customHeight="1" thickTop="1"/>
+    <row r="43" spans="1:30" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
